--- a/data/demo.xlsx
+++ b/data/demo.xlsx
@@ -417,7 +417,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="2">
-        <v>45540</v>
+        <v>45555</v>
       </c>
     </row>
     <row r="3">
@@ -441,7 +441,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="2">
-        <v>45539</v>
+        <v>45554</v>
       </c>
     </row>
     <row r="4">
@@ -465,7 +465,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="2">
-        <v>45538</v>
+        <v>45553</v>
       </c>
     </row>
     <row r="5">
@@ -489,7 +489,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="2">
-        <v>45537</v>
+        <v>45552</v>
       </c>
     </row>
     <row r="6">
@@ -510,7 +510,7 @@
         <v>5.5</v>
       </c>
       <c r="F6" s="2">
-        <v>45536</v>
+        <v>45551</v>
       </c>
     </row>
     <row r="7">
@@ -534,7 +534,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="2">
-        <v>45535</v>
+        <v>45550</v>
       </c>
     </row>
   </sheetData>

--- a/data/demo.xlsx
+++ b/data/demo.xlsx
@@ -1,38 +1,83 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t xml:space="preserve">character</t>
+  </si>
+  <si>
+    <t xml:space="preserve">factor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">integer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">double</t>
+  </si>
+  <si>
+    <t xml:space="preserve">logical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">high</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">low</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">med</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
   </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -55,18 +100,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -116,10 +157,6 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
         <a:font script="Thai" typeface="Tahoma"/>
@@ -145,15 +182,12 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
         <a:font script="Thai" typeface="Tahoma"/>
@@ -179,6 +213,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -354,190 +389,153 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="6" max="6" width="20.7109375" style="2" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>factor</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>integer</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>double</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>logical</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>date</t>
-        </is>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
-      </c>
-      <c r="C2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="n">
         <v>1</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>1.5</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
       </c>
-      <c r="F2" s="2">
-        <v>45555</v>
+      <c r="F2" s="1" t="n">
+        <v>45558</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>low</t>
-        </is>
-      </c>
-      <c r="C3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="n">
         <v>2</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>2.5</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
       </c>
-      <c r="F3" s="2">
-        <v>45554</v>
+      <c r="F3" s="1" t="n">
+        <v>45557</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>med</t>
-        </is>
-      </c>
-      <c r="C4">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="n">
         <v>3</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>3.5</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
       </c>
-      <c r="F4" s="2">
-        <v>45553</v>
+      <c r="F4" s="1" t="n">
+        <v>45556</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
-      </c>
-      <c r="C5">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="n">
         <v>4</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>4.5</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
       </c>
-      <c r="F5" s="2">
-        <v>45552</v>
+      <c r="F5" s="1" t="n">
+        <v>45555</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>low</t>
-        </is>
-      </c>
-      <c r="C6">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="n">
         <v>5</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>5.5</v>
       </c>
-      <c r="F6" s="2">
-        <v>45551</v>
+      <c r="E6"/>
+      <c r="F6" s="1" t="n">
+        <v>45554</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>med</t>
-        </is>
-      </c>
-      <c r="C7">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="n">
         <v>6</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>6.5</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
       </c>
-      <c r="F7" s="2">
-        <v>45550</v>
+      <c r="F7" s="1" t="n">
+        <v>45553</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/data/demo.xlsx
+++ b/data/demo.xlsx
@@ -1,83 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t xml:space="preserve">character</t>
-  </si>
-  <si>
-    <t xml:space="preserve">factor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">integer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">double</t>
-  </si>
-  <si>
-    <t xml:space="preserve">logical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">high</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">low</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">med</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -100,14 +55,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -157,6 +116,10 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
         <a:font script="Thai" typeface="Tahoma"/>
@@ -182,12 +145,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
         <a:font script="Thai" typeface="Tahoma"/>
@@ -213,7 +179,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -389,153 +354,190 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="6" max="6" width="20.7109375" style="2" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>factor</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>integer</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>double</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>logical</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="C2">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>1.5</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
       </c>
-      <c r="F2" s="1" t="n">
-        <v>45558</v>
+      <c r="F2" s="2">
+        <v>45880</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="n">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>2.5</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
       </c>
-      <c r="F3" s="1" t="n">
-        <v>45557</v>
+      <c r="F3" s="2">
+        <v>45879</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="n">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>med</t>
+        </is>
+      </c>
+      <c r="C4">
         <v>3</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>3.5</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
       </c>
-      <c r="F4" s="1" t="n">
-        <v>45556</v>
+      <c r="F4" s="2">
+        <v>45878</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="n">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="C5">
         <v>4</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>4.5</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
       </c>
-      <c r="F5" s="1" t="n">
-        <v>45555</v>
+      <c r="F5" s="2">
+        <v>45877</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="n">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="C6">
         <v>5</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>5.5</v>
       </c>
-      <c r="E6"/>
-      <c r="F6" s="1" t="n">
-        <v>45554</v>
+      <c r="F6" s="2">
+        <v>45876</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="n">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>med</t>
+        </is>
+      </c>
+      <c r="C7">
         <v>6</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>6.5</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
       </c>
-      <c r="F7" s="1" t="n">
-        <v>45553</v>
+      <c r="F7" s="2">
+        <v>45875</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/data/demo.xlsx
+++ b/data/demo.xlsx
@@ -417,7 +417,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="2">
-        <v>45880</v>
+        <v>45916</v>
       </c>
     </row>
     <row r="3">
@@ -441,7 +441,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="2">
-        <v>45879</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="4">
@@ -465,7 +465,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="2">
-        <v>45878</v>
+        <v>45914</v>
       </c>
     </row>
     <row r="5">
@@ -489,7 +489,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="2">
-        <v>45877</v>
+        <v>45913</v>
       </c>
     </row>
     <row r="6">
@@ -510,7 +510,7 @@
         <v>5.5</v>
       </c>
       <c r="F6" s="2">
-        <v>45876</v>
+        <v>45912</v>
       </c>
     </row>
     <row r="7">
@@ -534,7 +534,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="2">
-        <v>45875</v>
+        <v>45911</v>
       </c>
     </row>
   </sheetData>
